--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_BaoCao_KHNam_DeXuat_Goc_NguonVonKhac.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_BaoCao_KHNam_DeXuat_Goc_NguonVonKhac.xlsx
@@ -18,6 +18,7 @@
   <definedNames>
     <definedName name="__dv__">#REF!</definedName>
     <definedName name="__Items__">Sheet1!$A$12:$U$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$U$21</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$7:$11</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -601,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -633,9 +634,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -698,6 +696,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -716,6 +718,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,17 +730,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1023,8 +1028,8 @@
   </sheetPr>
   <dimension ref="A1:AH142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18:U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,19 +1040,19 @@
     <col min="4" max="5" width="7.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="7.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14" style="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="1" customWidth="1"/>
     <col min="23" max="23" width="6.28515625" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
@@ -1055,15 +1060,15 @@
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1080,15 +1085,15 @@
       <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1105,54 +1110,54 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
     </row>
     <row r="6" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1165,194 +1170,194 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-    </row>
-    <row r="7" spans="1:34" s="29" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+    </row>
+    <row r="7" spans="1:34" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43" t="s">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="N7" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="O7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43" t="s">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="43" t="s">
+      <c r="R7" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-    </row>
-    <row r="8" spans="1:34" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43" t="s">
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+    </row>
+    <row r="8" spans="1:34" s="28" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43" t="s">
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S8" s="43" t="s">
+      <c r="S8" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-    </row>
-    <row r="9" spans="1:34" s="29" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="30" t="s">
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+    </row>
+    <row r="9" spans="1:34" s="28" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="30" t="s">
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="30" t="s">
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="T9" s="30" t="s">
+      <c r="T9" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="43"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-    </row>
-    <row r="10" spans="1:34" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="U9" s="44"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+    </row>
+    <row r="10" spans="1:34" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -1403,107 +1408,107 @@
       <c r="U10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-    </row>
-    <row r="11" spans="1:34" s="26" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24" t="s">
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+    </row>
+    <row r="11" spans="1:34" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="27" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="27" t="s">
+      <c r="N11" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
     </row>
     <row r="12" spans="1:34" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="56" t="s">
         <v>75</v>
       </c>
       <c r="K12" s="12" t="s">
@@ -1536,308 +1541,316 @@
       <c r="T12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="U12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-    </row>
-    <row r="13" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:34" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+    </row>
+    <row r="13" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:34" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-    </row>
-    <row r="16" spans="1:34" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M16" s="53" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+    </row>
+    <row r="16" spans="1:34" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-    </row>
-    <row r="17" spans="1:21" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+    </row>
+    <row r="17" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="48" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="M17" s="48" t="s">
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-    </row>
-    <row r="18" spans="1:21" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+    </row>
+    <row r="18" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="49" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="M18" s="49" t="s">
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-    </row>
-    <row r="19" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+    </row>
+    <row r="19" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-    </row>
-    <row r="20" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+    </row>
+    <row r="20" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-    </row>
-    <row r="21" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="G21" s="50" t="s">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="G21" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="M21" s="50" t="s">
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-    </row>
-    <row r="22" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+    </row>
+    <row r="22" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="P16:U16"/>
     <mergeCell ref="O7:P8"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="P17:U17"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="P21:U21"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="G21:O21"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M21:P21"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="N7:N9"/>
@@ -1856,8 +1869,8 @@
     <mergeCell ref="H7:H9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.74803149606299202" bottom="0.196850393700787" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.59055118110236215" right="0.59055118110236215" top="0.59055118110236215" bottom="0.59055118110236215" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="42" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;RTrang &amp;P</oddHeader>
   </headerFooter>
